--- a/CashFlow/EXAS_cashflow.xlsx
+++ b/CashFlow/EXAS_cashflow.xlsx
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-30310000.0</v>
+        <v>323000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>-22988000.0</v>
+        <v>293000000.0</v>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
@@ -1098,19 +1098,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>55165000.0</v>
+        <v>131000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4844000.0</v>
+        <v>121000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-13360000.0</v>
+        <v>116775000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>48116000.0</v>
+        <v>117960000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>71197000.0</v>
+        <v>84745000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>84781000.0</v>
